--- a/datasets/demo01/generator.xlsx
+++ b/datasets/demo01/generator.xlsx
@@ -724,13 +724,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
-<customStorage xmlns="https://web.wps.cn/et/2018/main">
-  <book/>
-  <sheets/>
-</customStorage>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="WPS">
   <a:themeElements>
@@ -984,7 +977,7 @@
   <dimension ref="A1:L101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L101" sqref="H2:L101"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1024,31 +1017,31 @@
       </c>
       <c r="F2">
         <f ca="1">RANDBETWEEN(-10,10)</f>
-        <v>2</v>
+        <v>-6</v>
       </c>
       <c r="G2">
         <f ca="1">RANDBETWEEN(-20,20)</f>
-        <v>11</v>
+        <v>-4</v>
       </c>
       <c r="H2">
         <f ca="1">A2+$F2/10+$G2/100</f>
-        <v>1.31</v>
+        <v>0.36</v>
       </c>
       <c r="I2">
         <f ca="1">B2+$F2/10+$G2/100</f>
-        <v>4.31</v>
+        <v>3.36</v>
       </c>
       <c r="J2">
         <f ca="1">C2+$F2/10+$G2/100</f>
-        <v>5.31</v>
+        <v>4.36</v>
       </c>
       <c r="K2">
         <f ca="1">D2+$F2/10+$G2/100</f>
-        <v>13.31</v>
+        <v>12.36</v>
       </c>
       <c r="L2">
         <f ca="1">E2+$F2/10+$G2/100</f>
-        <v>-3.69</v>
+        <v>-4.64</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1069,31 +1062,31 @@
       </c>
       <c r="F3">
         <f ca="1" t="shared" ref="F3:F12" si="0">RANDBETWEEN(-5,5)</f>
-        <v>5</v>
+        <v>-3</v>
       </c>
       <c r="G3">
         <f ca="1" t="shared" ref="G3:G12" si="1">RANDBETWEEN(-10,10)</f>
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="H3">
         <f ca="1" t="shared" ref="H3:H34" si="2">A3+$F3/10+$G3/100</f>
-        <v>2.47</v>
+        <v>1.66</v>
       </c>
       <c r="I3">
         <f ca="1" t="shared" ref="I3:I34" si="3">B3+$F3/10+$G3/100</f>
-        <v>5.47</v>
+        <v>4.66</v>
       </c>
       <c r="J3">
         <f ca="1" t="shared" ref="J3:J34" si="4">C3+$F3/10+$G3/100</f>
-        <v>4.47</v>
+        <v>3.66</v>
       </c>
       <c r="K3">
         <f ca="1" t="shared" ref="K3:K34" si="5">D3+$F3/10+$G3/100</f>
-        <v>13.47</v>
+        <v>12.66</v>
       </c>
       <c r="L3">
         <f ca="1" t="shared" ref="L3:L34" si="6">E3+$F3/10+$G3/100</f>
-        <v>-2.53</v>
+        <v>-3.34</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1118,27 +1111,27 @@
       </c>
       <c r="G4">
         <f ca="1" t="shared" si="1"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <f ca="1" t="shared" si="2"/>
-        <v>3.17</v>
+        <v>3.1</v>
       </c>
       <c r="I4">
         <f ca="1" t="shared" si="3"/>
-        <v>6.17</v>
+        <v>6.1</v>
       </c>
       <c r="J4">
         <f ca="1" t="shared" si="4"/>
-        <v>3.17</v>
+        <v>3.1</v>
       </c>
       <c r="K4">
         <f ca="1" t="shared" si="5"/>
-        <v>13.17</v>
+        <v>13.1</v>
       </c>
       <c r="L4">
         <f ca="1" t="shared" si="6"/>
-        <v>-4.83</v>
+        <v>-4.9</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1159,7 +1152,7 @@
       </c>
       <c r="F5">
         <f ca="1" t="shared" si="0"/>
-        <v>4</v>
+        <v>-5</v>
       </c>
       <c r="G5">
         <f ca="1" t="shared" si="1"/>
@@ -1167,23 +1160,23 @@
       </c>
       <c r="H5">
         <f ca="1" t="shared" si="2"/>
-        <v>4.31</v>
+        <v>3.41</v>
       </c>
       <c r="I5">
         <f ca="1" t="shared" si="3"/>
-        <v>7.31</v>
+        <v>6.41</v>
       </c>
       <c r="J5">
         <f ca="1" t="shared" si="4"/>
-        <v>2.31</v>
+        <v>1.41</v>
       </c>
       <c r="K5">
         <f ca="1" t="shared" si="5"/>
-        <v>13.31</v>
+        <v>12.41</v>
       </c>
       <c r="L5">
         <f ca="1" t="shared" si="6"/>
-        <v>-1.69</v>
+        <v>-2.59</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1204,31 +1197,31 @@
       </c>
       <c r="F6">
         <f ca="1" t="shared" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G6">
         <f ca="1" t="shared" si="1"/>
-        <v>6</v>
+        <v>-4</v>
       </c>
       <c r="H6">
         <f ca="1" t="shared" si="2"/>
-        <v>5.46</v>
+        <v>5.06</v>
       </c>
       <c r="I6">
         <f ca="1" t="shared" si="3"/>
-        <v>8.46</v>
+        <v>8.06</v>
       </c>
       <c r="J6">
         <f ca="1" t="shared" si="4"/>
-        <v>5.46</v>
+        <v>5.06</v>
       </c>
       <c r="K6">
         <f ca="1" t="shared" si="5"/>
-        <v>13.46</v>
+        <v>13.06</v>
       </c>
       <c r="L6">
         <f ca="1" t="shared" si="6"/>
-        <v>-5.54</v>
+        <v>-5.94</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1249,31 +1242,31 @@
       </c>
       <c r="F7">
         <f ca="1" t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G7">
         <f ca="1" t="shared" si="1"/>
-        <v>-6</v>
+        <v>7</v>
       </c>
       <c r="H7">
         <f ca="1" t="shared" si="2"/>
-        <v>6.24</v>
+        <v>6.57</v>
       </c>
       <c r="I7">
         <f ca="1" t="shared" si="3"/>
-        <v>5.24</v>
+        <v>5.57</v>
       </c>
       <c r="J7">
         <f ca="1" t="shared" si="4"/>
-        <v>4.24</v>
+        <v>4.57</v>
       </c>
       <c r="K7">
         <f ca="1" t="shared" si="5"/>
-        <v>13.24</v>
+        <v>13.57</v>
       </c>
       <c r="L7">
         <f ca="1" t="shared" si="6"/>
-        <v>-3.76</v>
+        <v>-3.43</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1298,27 +1291,27 @@
       </c>
       <c r="G8">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>-9</v>
       </c>
       <c r="H8">
         <f ca="1" t="shared" si="2"/>
-        <v>7.41</v>
+        <v>7.31</v>
       </c>
       <c r="I8">
         <f ca="1" t="shared" si="3"/>
-        <v>6.41</v>
+        <v>6.31</v>
       </c>
       <c r="J8">
         <f ca="1" t="shared" si="4"/>
-        <v>3.41</v>
+        <v>3.31</v>
       </c>
       <c r="K8">
         <f ca="1" t="shared" si="5"/>
-        <v>13.41</v>
+        <v>13.31</v>
       </c>
       <c r="L8">
         <f ca="1" t="shared" si="6"/>
-        <v>-2.59</v>
+        <v>-2.69</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1343,27 +1336,27 @@
       </c>
       <c r="G9">
         <f ca="1" t="shared" si="1"/>
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <f ca="1" t="shared" si="2"/>
-        <v>7.56</v>
+        <v>7.61</v>
       </c>
       <c r="I9">
         <f ca="1" t="shared" si="3"/>
-        <v>6.56</v>
+        <v>6.61</v>
       </c>
       <c r="J9">
         <f ca="1" t="shared" si="4"/>
-        <v>1.56</v>
+        <v>1.61</v>
       </c>
       <c r="K9">
         <f ca="1" t="shared" si="5"/>
-        <v>12.56</v>
+        <v>12.61</v>
       </c>
       <c r="L9">
         <f ca="1" t="shared" si="6"/>
-        <v>-5.44</v>
+        <v>-5.39</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1388,27 +1381,27 @@
       </c>
       <c r="G10">
         <f ca="1" t="shared" si="1"/>
-        <v>-9</v>
+        <v>5</v>
       </c>
       <c r="H10">
         <f ca="1" t="shared" si="2"/>
-        <v>8.71</v>
+        <v>8.85</v>
       </c>
       <c r="I10">
         <f ca="1" t="shared" si="3"/>
-        <v>7.71</v>
+        <v>7.85</v>
       </c>
       <c r="J10">
         <f ca="1" t="shared" si="4"/>
-        <v>4.71</v>
+        <v>4.85</v>
       </c>
       <c r="K10">
         <f ca="1" t="shared" si="5"/>
-        <v>12.71</v>
+        <v>12.85</v>
       </c>
       <c r="L10">
         <f ca="1" t="shared" si="6"/>
-        <v>-2.29</v>
+        <v>-2.15</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1429,31 +1422,31 @@
       </c>
       <c r="F11">
         <f ca="1" t="shared" si="0"/>
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="G11">
         <f ca="1" t="shared" si="1"/>
-        <v>-3</v>
+        <v>-10</v>
       </c>
       <c r="H11">
         <f ca="1" t="shared" si="2"/>
-        <v>9.77</v>
+        <v>10.2</v>
       </c>
       <c r="I11">
         <f ca="1" t="shared" si="3"/>
-        <v>8.77</v>
+        <v>9.2</v>
       </c>
       <c r="J11">
         <f ca="1" t="shared" si="4"/>
-        <v>3.77</v>
+        <v>4.2</v>
       </c>
       <c r="K11">
         <f ca="1" t="shared" si="5"/>
-        <v>12.77</v>
+        <v>13.2</v>
       </c>
       <c r="L11">
         <f ca="1" t="shared" si="6"/>
-        <v>-6.23</v>
+        <v>-5.8</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1474,31 +1467,31 @@
       </c>
       <c r="F12">
         <f ca="1" t="shared" si="0"/>
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="G12">
         <f ca="1" t="shared" si="1"/>
-        <v>-7</v>
+        <v>2</v>
       </c>
       <c r="H12">
         <f ca="1" t="shared" si="2"/>
-        <v>10.83</v>
+        <v>11.42</v>
       </c>
       <c r="I12">
         <f ca="1" t="shared" si="3"/>
-        <v>5.83</v>
+        <v>6.42</v>
       </c>
       <c r="J12">
         <f ca="1" t="shared" si="4"/>
-        <v>2.83</v>
+        <v>3.42</v>
       </c>
       <c r="K12">
         <f ca="1" t="shared" si="5"/>
-        <v>12.83</v>
+        <v>13.42</v>
       </c>
       <c r="L12">
         <f ca="1" t="shared" si="6"/>
-        <v>-4.17</v>
+        <v>-3.58</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1519,31 +1512,31 @@
       </c>
       <c r="F13">
         <f ca="1" t="shared" ref="F13:F22" si="7">RANDBETWEEN(-5,5)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <f ca="1" t="shared" ref="G13:G22" si="8">RANDBETWEEN(-10,10)</f>
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="H13">
         <f ca="1" t="shared" si="2"/>
-        <v>12.11</v>
+        <v>11.97</v>
       </c>
       <c r="I13">
         <f ca="1" t="shared" si="3"/>
-        <v>7.11</v>
+        <v>6.97</v>
       </c>
       <c r="J13">
         <f ca="1" t="shared" si="4"/>
-        <v>2.11</v>
+        <v>1.97</v>
       </c>
       <c r="K13">
         <f ca="1" t="shared" si="5"/>
-        <v>13.11</v>
+        <v>12.97</v>
       </c>
       <c r="L13">
         <f ca="1" t="shared" si="6"/>
-        <v>-2.89</v>
+        <v>-3.03</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1564,31 +1557,31 @@
       </c>
       <c r="F14">
         <f ca="1" t="shared" si="7"/>
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="G14">
         <f ca="1" t="shared" si="8"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H14">
         <f ca="1" t="shared" si="2"/>
-        <v>13.36</v>
+        <v>12.74</v>
       </c>
       <c r="I14">
         <f ca="1" t="shared" si="3"/>
-        <v>8.36</v>
+        <v>7.74</v>
       </c>
       <c r="J14">
         <f ca="1" t="shared" si="4"/>
-        <v>5.36</v>
+        <v>4.74</v>
       </c>
       <c r="K14">
         <f ca="1" t="shared" si="5"/>
-        <v>13.36</v>
+        <v>12.74</v>
       </c>
       <c r="L14">
         <f ca="1" t="shared" si="6"/>
-        <v>-4.64</v>
+        <v>-5.26</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1609,31 +1602,31 @@
       </c>
       <c r="F15">
         <f ca="1" t="shared" si="7"/>
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="G15">
         <f ca="1" t="shared" si="8"/>
-        <v>-6</v>
+        <v>4</v>
       </c>
       <c r="H15">
         <f ca="1" t="shared" si="2"/>
-        <v>13.84</v>
+        <v>13.74</v>
       </c>
       <c r="I15">
         <f ca="1" t="shared" si="3"/>
-        <v>8.84</v>
+        <v>8.74</v>
       </c>
       <c r="J15">
         <f ca="1" t="shared" si="4"/>
-        <v>3.84</v>
+        <v>3.74</v>
       </c>
       <c r="K15">
         <f ca="1" t="shared" si="5"/>
-        <v>12.84</v>
+        <v>12.74</v>
       </c>
       <c r="L15">
         <f ca="1" t="shared" si="6"/>
-        <v>-2.16</v>
+        <v>-2.26</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1654,31 +1647,31 @@
       </c>
       <c r="F16">
         <f ca="1" t="shared" si="7"/>
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="G16">
         <f ca="1" t="shared" si="8"/>
-        <v>-9</v>
+        <v>9</v>
       </c>
       <c r="H16">
         <f ca="1" t="shared" si="2"/>
-        <v>14.61</v>
+        <v>14.69</v>
       </c>
       <c r="I16">
         <f ca="1" t="shared" si="3"/>
-        <v>9.61</v>
+        <v>9.69</v>
       </c>
       <c r="J16">
         <f ca="1" t="shared" si="4"/>
-        <v>2.61</v>
+        <v>2.69</v>
       </c>
       <c r="K16">
         <f ca="1" t="shared" si="5"/>
-        <v>12.61</v>
+        <v>12.69</v>
       </c>
       <c r="L16">
         <f ca="1" t="shared" si="6"/>
-        <v>-6.39</v>
+        <v>-6.31</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1699,31 +1692,31 @@
       </c>
       <c r="F17">
         <f ca="1" t="shared" si="7"/>
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="G17">
         <f ca="1" t="shared" si="8"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H17">
         <f ca="1" t="shared" si="2"/>
-        <v>15.59</v>
+        <v>16.58</v>
       </c>
       <c r="I17">
         <f ca="1" t="shared" si="3"/>
-        <v>6.59</v>
+        <v>7.58</v>
       </c>
       <c r="J17">
         <f ca="1" t="shared" si="4"/>
-        <v>1.59</v>
+        <v>2.58</v>
       </c>
       <c r="K17">
         <f ca="1" t="shared" si="5"/>
-        <v>12.59</v>
+        <v>13.58</v>
       </c>
       <c r="L17">
         <f ca="1" t="shared" si="6"/>
-        <v>-4.41</v>
+        <v>-3.42</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1744,31 +1737,31 @@
       </c>
       <c r="F18">
         <f ca="1" t="shared" si="7"/>
-        <v>1</v>
+        <v>-5</v>
       </c>
       <c r="G18">
         <f ca="1" t="shared" si="8"/>
-        <v>-7</v>
+        <v>-3</v>
       </c>
       <c r="H18">
         <f ca="1" t="shared" si="2"/>
-        <v>17.03</v>
+        <v>16.47</v>
       </c>
       <c r="I18">
         <f ca="1" t="shared" si="3"/>
-        <v>8.03</v>
+        <v>7.47</v>
       </c>
       <c r="J18">
         <f ca="1" t="shared" si="4"/>
-        <v>5.03</v>
+        <v>4.47</v>
       </c>
       <c r="K18">
         <f ca="1" t="shared" si="5"/>
-        <v>13.03</v>
+        <v>12.47</v>
       </c>
       <c r="L18">
         <f ca="1" t="shared" si="6"/>
-        <v>-2.97</v>
+        <v>-3.53</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1789,31 +1782,31 @@
       </c>
       <c r="F19">
         <f ca="1" t="shared" si="7"/>
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="G19">
         <f ca="1" t="shared" si="8"/>
-        <v>-7</v>
+        <v>1</v>
       </c>
       <c r="H19">
         <f ca="1" t="shared" si="2"/>
-        <v>18.33</v>
+        <v>17.61</v>
       </c>
       <c r="I19">
         <f ca="1" t="shared" si="3"/>
-        <v>9.33</v>
+        <v>8.61</v>
       </c>
       <c r="J19">
         <f ca="1" t="shared" si="4"/>
-        <v>4.33</v>
+        <v>3.61</v>
       </c>
       <c r="K19">
         <f ca="1" t="shared" si="5"/>
-        <v>13.33</v>
+        <v>12.61</v>
       </c>
       <c r="L19">
         <f ca="1" t="shared" si="6"/>
-        <v>-4.67</v>
+        <v>-5.39</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1834,31 +1827,31 @@
       </c>
       <c r="F20">
         <f ca="1" t="shared" si="7"/>
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="G20">
         <f ca="1" t="shared" si="8"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="H20">
         <f ca="1" t="shared" si="2"/>
-        <v>18.48</v>
+        <v>18.7</v>
       </c>
       <c r="I20">
         <f ca="1" t="shared" si="3"/>
-        <v>9.48</v>
+        <v>9.7</v>
       </c>
       <c r="J20">
         <f ca="1" t="shared" si="4"/>
-        <v>2.48</v>
+        <v>2.7</v>
       </c>
       <c r="K20">
         <f ca="1" t="shared" si="5"/>
-        <v>12.48</v>
+        <v>12.7</v>
       </c>
       <c r="L20">
         <f ca="1" t="shared" si="6"/>
-        <v>-2.52</v>
+        <v>-2.3</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1879,31 +1872,31 @@
       </c>
       <c r="F21">
         <f ca="1" t="shared" si="7"/>
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="G21">
         <f ca="1" t="shared" si="8"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H21">
         <f ca="1" t="shared" si="2"/>
-        <v>19.58</v>
+        <v>19.7</v>
       </c>
       <c r="I21">
         <f ca="1" t="shared" si="3"/>
-        <v>10.58</v>
+        <v>10.7</v>
       </c>
       <c r="J21">
         <f ca="1" t="shared" si="4"/>
-        <v>1.58</v>
+        <v>1.7</v>
       </c>
       <c r="K21">
         <f ca="1" t="shared" si="5"/>
-        <v>12.58</v>
+        <v>12.7</v>
       </c>
       <c r="L21">
         <f ca="1" t="shared" si="6"/>
-        <v>-6.42</v>
+        <v>-6.3</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1924,31 +1917,31 @@
       </c>
       <c r="F22">
         <f ca="1" t="shared" si="7"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G22">
         <f ca="1" t="shared" si="8"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H22">
         <f ca="1" t="shared" si="2"/>
-        <v>21.51</v>
+        <v>21.18</v>
       </c>
       <c r="I22">
         <f ca="1" t="shared" si="3"/>
-        <v>4.51</v>
+        <v>4.18</v>
       </c>
       <c r="J22">
         <f ca="1" t="shared" si="4"/>
-        <v>5.51</v>
+        <v>5.18</v>
       </c>
       <c r="K22">
         <f ca="1" t="shared" si="5"/>
-        <v>13.51</v>
+        <v>13.18</v>
       </c>
       <c r="L22">
         <f ca="1" t="shared" si="6"/>
-        <v>-3.49</v>
+        <v>-3.82</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1969,31 +1962,31 @@
       </c>
       <c r="F23">
         <f ca="1" t="shared" ref="F23:F32" si="9">RANDBETWEEN(-5,5)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G23">
         <f ca="1" t="shared" ref="G23:G32" si="10">RANDBETWEEN(-10,10)</f>
-        <v>-7</v>
+        <v>7</v>
       </c>
       <c r="H23">
         <f ca="1" t="shared" si="2"/>
-        <v>21.93</v>
+        <v>22.27</v>
       </c>
       <c r="I23">
         <f ca="1" t="shared" si="3"/>
-        <v>4.93</v>
+        <v>5.27</v>
       </c>
       <c r="J23">
         <f ca="1" t="shared" si="4"/>
-        <v>3.93</v>
+        <v>4.27</v>
       </c>
       <c r="K23">
         <f ca="1" t="shared" si="5"/>
-        <v>12.93</v>
+        <v>13.27</v>
       </c>
       <c r="L23">
         <f ca="1" t="shared" si="6"/>
-        <v>-3.07</v>
+        <v>-2.73</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2014,31 +2007,31 @@
       </c>
       <c r="F24">
         <f ca="1" t="shared" si="9"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G24">
         <f ca="1" t="shared" si="10"/>
-        <v>-8</v>
+        <v>2</v>
       </c>
       <c r="H24">
         <f ca="1" t="shared" si="2"/>
-        <v>23.42</v>
+        <v>23.32</v>
       </c>
       <c r="I24">
         <f ca="1" t="shared" si="3"/>
-        <v>6.42</v>
+        <v>6.32</v>
       </c>
       <c r="J24">
         <f ca="1" t="shared" si="4"/>
-        <v>3.42</v>
+        <v>3.32</v>
       </c>
       <c r="K24">
         <f ca="1" t="shared" si="5"/>
-        <v>13.42</v>
+        <v>13.32</v>
       </c>
       <c r="L24">
         <f ca="1" t="shared" si="6"/>
-        <v>-4.58</v>
+        <v>-4.68</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2059,31 +2052,31 @@
       </c>
       <c r="F25">
         <f ca="1" t="shared" si="9"/>
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="G25">
         <f ca="1" t="shared" si="10"/>
-        <v>8</v>
+        <v>-2</v>
       </c>
       <c r="H25">
         <f ca="1" t="shared" si="2"/>
-        <v>23.68</v>
+        <v>23.78</v>
       </c>
       <c r="I25">
         <f ca="1" t="shared" si="3"/>
-        <v>6.68</v>
+        <v>6.78</v>
       </c>
       <c r="J25">
         <f ca="1" t="shared" si="4"/>
-        <v>1.68</v>
+        <v>1.78</v>
       </c>
       <c r="K25">
         <f ca="1" t="shared" si="5"/>
-        <v>12.68</v>
+        <v>12.78</v>
       </c>
       <c r="L25">
         <f ca="1" t="shared" si="6"/>
-        <v>-2.32</v>
+        <v>-2.22</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2104,31 +2097,31 @@
       </c>
       <c r="F26">
         <f ca="1" t="shared" si="9"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G26">
         <f ca="1" t="shared" si="10"/>
-        <v>-3</v>
+        <v>-8</v>
       </c>
       <c r="H26">
         <f ca="1" t="shared" si="2"/>
-        <v>25.17</v>
+        <v>24.92</v>
       </c>
       <c r="I26">
         <f ca="1" t="shared" si="3"/>
-        <v>8.17</v>
+        <v>7.92</v>
       </c>
       <c r="J26">
         <f ca="1" t="shared" si="4"/>
-        <v>5.17</v>
+        <v>4.92</v>
       </c>
       <c r="K26">
         <f ca="1" t="shared" si="5"/>
-        <v>13.17</v>
+        <v>12.92</v>
       </c>
       <c r="L26">
         <f ca="1" t="shared" si="6"/>
-        <v>-5.83</v>
+        <v>-6.08</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2149,31 +2142,31 @@
       </c>
       <c r="F27">
         <f ca="1" t="shared" si="9"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G27">
         <f ca="1" t="shared" si="10"/>
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="H27">
         <f ca="1" t="shared" si="2"/>
-        <v>26.09</v>
+        <v>26.49</v>
       </c>
       <c r="I27">
         <f ca="1" t="shared" si="3"/>
-        <v>5.09</v>
+        <v>5.49</v>
       </c>
       <c r="J27">
         <f ca="1" t="shared" si="4"/>
-        <v>4.09</v>
+        <v>4.49</v>
       </c>
       <c r="K27">
         <f ca="1" t="shared" si="5"/>
-        <v>13.09</v>
+        <v>13.49</v>
       </c>
       <c r="L27">
         <f ca="1" t="shared" si="6"/>
-        <v>-3.91</v>
+        <v>-3.51</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2194,31 +2187,31 @@
       </c>
       <c r="F28">
         <f ca="1" t="shared" si="9"/>
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="G28">
         <f ca="1" t="shared" si="10"/>
-        <v>10</v>
+        <v>-2</v>
       </c>
       <c r="H28">
         <f ca="1" t="shared" si="2"/>
-        <v>26.7</v>
+        <v>26.48</v>
       </c>
       <c r="I28">
         <f ca="1" t="shared" si="3"/>
-        <v>5.7</v>
+        <v>5.48</v>
       </c>
       <c r="J28">
         <f ca="1" t="shared" si="4"/>
-        <v>2.7</v>
+        <v>2.48</v>
       </c>
       <c r="K28">
         <f ca="1" t="shared" si="5"/>
-        <v>12.7</v>
+        <v>12.48</v>
       </c>
       <c r="L28">
         <f ca="1" t="shared" si="6"/>
-        <v>-3.3</v>
+        <v>-3.52</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2239,31 +2232,31 @@
       </c>
       <c r="F29">
         <f ca="1" t="shared" si="9"/>
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="G29">
         <f ca="1" t="shared" si="10"/>
-        <v>6</v>
+        <v>-8</v>
       </c>
       <c r="H29">
         <f ca="1" t="shared" si="2"/>
-        <v>28.06</v>
+        <v>27.52</v>
       </c>
       <c r="I29">
         <f ca="1" t="shared" si="3"/>
-        <v>7.06</v>
+        <v>6.52</v>
       </c>
       <c r="J29">
         <f ca="1" t="shared" si="4"/>
-        <v>2.06</v>
+        <v>1.52</v>
       </c>
       <c r="K29">
         <f ca="1" t="shared" si="5"/>
-        <v>13.06</v>
+        <v>12.52</v>
       </c>
       <c r="L29">
         <f ca="1" t="shared" si="6"/>
-        <v>-4.94</v>
+        <v>-5.48</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2284,31 +2277,31 @@
       </c>
       <c r="F30">
         <f ca="1" t="shared" si="9"/>
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="G30">
         <f ca="1" t="shared" si="10"/>
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H30">
         <f ca="1" t="shared" si="2"/>
-        <v>29.1</v>
+        <v>28.49</v>
       </c>
       <c r="I30">
         <f ca="1" t="shared" si="3"/>
-        <v>8.1</v>
+        <v>7.49</v>
       </c>
       <c r="J30">
         <f ca="1" t="shared" si="4"/>
-        <v>5.1</v>
+        <v>4.49</v>
       </c>
       <c r="K30">
         <f ca="1" t="shared" si="5"/>
-        <v>13.1</v>
+        <v>12.49</v>
       </c>
       <c r="L30">
         <f ca="1" t="shared" si="6"/>
-        <v>-1.9</v>
+        <v>-2.51</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -2333,27 +2326,27 @@
       </c>
       <c r="G31">
         <f ca="1" t="shared" si="10"/>
-        <v>-10</v>
+        <v>-6</v>
       </c>
       <c r="H31">
         <f ca="1" t="shared" si="2"/>
-        <v>29.9</v>
+        <v>29.94</v>
       </c>
       <c r="I31">
         <f ca="1" t="shared" si="3"/>
-        <v>8.9</v>
+        <v>8.94</v>
       </c>
       <c r="J31">
         <f ca="1" t="shared" si="4"/>
-        <v>3.9</v>
+        <v>3.94</v>
       </c>
       <c r="K31">
         <f ca="1" t="shared" si="5"/>
-        <v>12.9</v>
+        <v>12.94</v>
       </c>
       <c r="L31">
         <f ca="1" t="shared" si="6"/>
-        <v>-6.1</v>
+        <v>-6.06</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2374,31 +2367,31 @@
       </c>
       <c r="F32">
         <f ca="1" t="shared" si="9"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G32">
         <f ca="1" t="shared" si="10"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H32">
         <f ca="1" t="shared" si="2"/>
-        <v>31.44</v>
+        <v>31.5</v>
       </c>
       <c r="I32">
         <f ca="1" t="shared" si="3"/>
-        <v>6.44</v>
+        <v>6.5</v>
       </c>
       <c r="J32">
         <f ca="1" t="shared" si="4"/>
-        <v>3.44</v>
+        <v>3.5</v>
       </c>
       <c r="K32">
         <f ca="1" t="shared" si="5"/>
-        <v>13.44</v>
+        <v>13.5</v>
       </c>
       <c r="L32">
         <f ca="1" t="shared" si="6"/>
-        <v>-3.56</v>
+        <v>-3.5</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2419,31 +2412,31 @@
       </c>
       <c r="F33">
         <f ca="1" t="shared" ref="F33:F42" si="11">RANDBETWEEN(-5,5)</f>
-        <v>1</v>
+        <v>-5</v>
       </c>
       <c r="G33">
         <f ca="1" t="shared" ref="G33:G42" si="12">RANDBETWEEN(-10,10)</f>
-        <v>-2</v>
+        <v>-9</v>
       </c>
       <c r="H33">
         <f ca="1" t="shared" si="2"/>
-        <v>32.08</v>
+        <v>31.41</v>
       </c>
       <c r="I33">
         <f ca="1" t="shared" si="3"/>
-        <v>7.08</v>
+        <v>6.41</v>
       </c>
       <c r="J33">
         <f ca="1" t="shared" si="4"/>
-        <v>2.08</v>
+        <v>1.41</v>
       </c>
       <c r="K33">
         <f ca="1" t="shared" si="5"/>
-        <v>13.08</v>
+        <v>12.41</v>
       </c>
       <c r="L33">
         <f ca="1" t="shared" si="6"/>
-        <v>-2.92</v>
+        <v>-3.59</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -2464,31 +2457,31 @@
       </c>
       <c r="F34">
         <f ca="1" t="shared" si="11"/>
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="G34">
         <f ca="1" t="shared" si="12"/>
-        <v>-7</v>
+        <v>5</v>
       </c>
       <c r="H34">
         <f ca="1" t="shared" si="2"/>
-        <v>32.63</v>
+        <v>32.85</v>
       </c>
       <c r="I34">
         <f ca="1" t="shared" si="3"/>
-        <v>7.63</v>
+        <v>7.85</v>
       </c>
       <c r="J34">
         <f ca="1" t="shared" si="4"/>
-        <v>4.63</v>
+        <v>4.85</v>
       </c>
       <c r="K34">
         <f ca="1" t="shared" si="5"/>
-        <v>12.63</v>
+        <v>12.85</v>
       </c>
       <c r="L34">
         <f ca="1" t="shared" si="6"/>
-        <v>-5.37</v>
+        <v>-5.15</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -2513,27 +2506,27 @@
       </c>
       <c r="G35">
         <f ca="1" t="shared" si="12"/>
-        <v>-8</v>
+        <v>7</v>
       </c>
       <c r="H35">
         <f ca="1" t="shared" ref="H35:H66" si="13">A35+$F35/10+$G35/100</f>
-        <v>34.12</v>
+        <v>34.27</v>
       </c>
       <c r="I35">
         <f ca="1" t="shared" ref="I35:I66" si="14">B35+$F35/10+$G35/100</f>
-        <v>9.12</v>
+        <v>9.27</v>
       </c>
       <c r="J35">
         <f ca="1" t="shared" ref="J35:J66" si="15">C35+$F35/10+$G35/100</f>
-        <v>4.12</v>
+        <v>4.27</v>
       </c>
       <c r="K35">
         <f ca="1" t="shared" ref="K35:K66" si="16">D35+$F35/10+$G35/100</f>
-        <v>13.12</v>
+        <v>13.27</v>
       </c>
       <c r="L35">
         <f ca="1" t="shared" ref="L35:L66" si="17">E35+$F35/10+$G35/100</f>
-        <v>-1.88</v>
+        <v>-1.73</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -2554,31 +2547,31 @@
       </c>
       <c r="F36">
         <f ca="1" t="shared" si="11"/>
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="G36">
         <f ca="1" t="shared" si="12"/>
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="H36">
         <f ca="1" t="shared" si="13"/>
-        <v>34.58</v>
+        <v>35.02</v>
       </c>
       <c r="I36">
         <f ca="1" t="shared" si="14"/>
-        <v>9.58</v>
+        <v>10.02</v>
       </c>
       <c r="J36">
         <f ca="1" t="shared" si="15"/>
-        <v>2.58</v>
+        <v>3.02</v>
       </c>
       <c r="K36">
         <f ca="1" t="shared" si="16"/>
-        <v>12.58</v>
+        <v>13.02</v>
       </c>
       <c r="L36">
         <f ca="1" t="shared" si="17"/>
-        <v>-6.42</v>
+        <v>-5.98</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -2599,31 +2592,31 @@
       </c>
       <c r="F37">
         <f ca="1" t="shared" si="11"/>
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G37">
         <f ca="1" t="shared" si="12"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H37">
         <f ca="1" t="shared" si="13"/>
-        <v>35.94</v>
+        <v>36.5</v>
       </c>
       <c r="I37">
         <f ca="1" t="shared" si="14"/>
-        <v>6.94</v>
+        <v>7.5</v>
       </c>
       <c r="J37">
         <f ca="1" t="shared" si="15"/>
-        <v>1.94</v>
+        <v>2.5</v>
       </c>
       <c r="K37">
         <f ca="1" t="shared" si="16"/>
-        <v>12.94</v>
+        <v>13.5</v>
       </c>
       <c r="L37">
         <f ca="1" t="shared" si="17"/>
-        <v>-4.06</v>
+        <v>-3.5</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -2644,31 +2637,31 @@
       </c>
       <c r="F38">
         <f ca="1" t="shared" si="11"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="G38">
         <f ca="1" t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38">
         <f ca="1" t="shared" si="13"/>
-        <v>37</v>
+        <v>36.81</v>
       </c>
       <c r="I38">
         <f ca="1" t="shared" si="14"/>
-        <v>8</v>
+        <v>7.81</v>
       </c>
       <c r="J38">
         <f ca="1" t="shared" si="15"/>
-        <v>5</v>
+        <v>4.81</v>
       </c>
       <c r="K38">
         <f ca="1" t="shared" si="16"/>
-        <v>13</v>
+        <v>12.81</v>
       </c>
       <c r="L38">
         <f ca="1" t="shared" si="17"/>
-        <v>-3</v>
+        <v>-3.19</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -2689,31 +2682,31 @@
       </c>
       <c r="F39">
         <f ca="1" t="shared" si="11"/>
-        <v>3</v>
+        <v>-5</v>
       </c>
       <c r="G39">
         <f ca="1" t="shared" si="12"/>
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="H39">
         <f ca="1" t="shared" si="13"/>
-        <v>38.25</v>
+        <v>37.44</v>
       </c>
       <c r="I39">
         <f ca="1" t="shared" si="14"/>
-        <v>9.25</v>
+        <v>8.44</v>
       </c>
       <c r="J39">
         <f ca="1" t="shared" si="15"/>
-        <v>4.25</v>
+        <v>3.44</v>
       </c>
       <c r="K39">
         <f ca="1" t="shared" si="16"/>
-        <v>13.25</v>
+        <v>12.44</v>
       </c>
       <c r="L39">
         <f ca="1" t="shared" si="17"/>
-        <v>-4.75</v>
+        <v>-5.56</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2734,31 +2727,31 @@
       </c>
       <c r="F40">
         <f ca="1" t="shared" si="11"/>
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="G40">
         <f ca="1" t="shared" si="12"/>
-        <v>3</v>
+        <v>-4</v>
       </c>
       <c r="H40">
         <f ca="1" t="shared" si="13"/>
-        <v>39.03</v>
+        <v>38.46</v>
       </c>
       <c r="I40">
         <f ca="1" t="shared" si="14"/>
-        <v>10.03</v>
+        <v>9.46</v>
       </c>
       <c r="J40">
         <f ca="1" t="shared" si="15"/>
-        <v>3.03</v>
+        <v>2.46</v>
       </c>
       <c r="K40">
         <f ca="1" t="shared" si="16"/>
-        <v>13.03</v>
+        <v>12.46</v>
       </c>
       <c r="L40">
         <f ca="1" t="shared" si="17"/>
-        <v>-1.97</v>
+        <v>-2.54</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -2783,27 +2776,27 @@
       </c>
       <c r="G41">
         <f ca="1" t="shared" si="12"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H41">
         <f ca="1" t="shared" si="13"/>
-        <v>40.02</v>
+        <v>40.05</v>
       </c>
       <c r="I41">
         <f ca="1" t="shared" si="14"/>
-        <v>11.02</v>
+        <v>11.05</v>
       </c>
       <c r="J41">
         <f ca="1" t="shared" si="15"/>
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="K41">
         <f ca="1" t="shared" si="16"/>
-        <v>13.02</v>
+        <v>13.05</v>
       </c>
       <c r="L41">
         <f ca="1" t="shared" si="17"/>
-        <v>-5.98</v>
+        <v>-5.95</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -2824,31 +2817,31 @@
       </c>
       <c r="F42">
         <f ca="1" t="shared" si="11"/>
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="G42">
         <f ca="1" t="shared" si="12"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H42">
         <f ca="1" t="shared" si="13"/>
-        <v>40.74</v>
+        <v>40.67</v>
       </c>
       <c r="I42">
         <f ca="1" t="shared" si="14"/>
-        <v>3.74</v>
+        <v>3.67</v>
       </c>
       <c r="J42">
         <f ca="1" t="shared" si="15"/>
-        <v>4.74</v>
+        <v>4.67</v>
       </c>
       <c r="K42">
         <f ca="1" t="shared" si="16"/>
-        <v>12.74</v>
+        <v>12.67</v>
       </c>
       <c r="L42">
         <f ca="1" t="shared" si="17"/>
-        <v>-4.26</v>
+        <v>-4.33</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2873,27 +2866,27 @@
       </c>
       <c r="G43">
         <f ca="1" t="shared" ref="G43:G52" si="19">RANDBETWEEN(-10,10)</f>
-        <v>9</v>
+        <v>-4</v>
       </c>
       <c r="H43">
         <f ca="1" t="shared" si="13"/>
-        <v>42.09</v>
+        <v>41.96</v>
       </c>
       <c r="I43">
         <f ca="1" t="shared" si="14"/>
-        <v>5.09</v>
+        <v>4.96</v>
       </c>
       <c r="J43">
         <f ca="1" t="shared" si="15"/>
-        <v>4.09</v>
+        <v>3.96</v>
       </c>
       <c r="K43">
         <f ca="1" t="shared" si="16"/>
-        <v>13.09</v>
+        <v>12.96</v>
       </c>
       <c r="L43">
         <f ca="1" t="shared" si="17"/>
-        <v>-2.91</v>
+        <v>-3.04</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2914,31 +2907,31 @@
       </c>
       <c r="F44">
         <f ca="1" t="shared" si="18"/>
-        <v>-3</v>
+        <v>5</v>
       </c>
       <c r="G44">
         <f ca="1" t="shared" si="19"/>
-        <v>-9</v>
+        <v>-5</v>
       </c>
       <c r="H44">
         <f ca="1" t="shared" si="13"/>
-        <v>42.61</v>
+        <v>43.45</v>
       </c>
       <c r="I44">
         <f ca="1" t="shared" si="14"/>
-        <v>5.61</v>
+        <v>6.45</v>
       </c>
       <c r="J44">
         <f ca="1" t="shared" si="15"/>
-        <v>2.61</v>
+        <v>3.45</v>
       </c>
       <c r="K44">
         <f ca="1" t="shared" si="16"/>
-        <v>12.61</v>
+        <v>13.45</v>
       </c>
       <c r="L44">
         <f ca="1" t="shared" si="17"/>
-        <v>-5.39</v>
+        <v>-4.55</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2959,31 +2952,31 @@
       </c>
       <c r="F45">
         <f ca="1" t="shared" si="18"/>
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="G45">
         <f ca="1" t="shared" si="19"/>
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="H45">
         <f ca="1" t="shared" si="13"/>
-        <v>43.56</v>
+        <v>44.11</v>
       </c>
       <c r="I45">
         <f ca="1" t="shared" si="14"/>
-        <v>6.56</v>
+        <v>7.11</v>
       </c>
       <c r="J45">
         <f ca="1" t="shared" si="15"/>
-        <v>1.56</v>
+        <v>2.11</v>
       </c>
       <c r="K45">
         <f ca="1" t="shared" si="16"/>
-        <v>12.56</v>
+        <v>13.11</v>
       </c>
       <c r="L45">
         <f ca="1" t="shared" si="17"/>
-        <v>-2.44</v>
+        <v>-1.89</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3004,31 +2997,31 @@
       </c>
       <c r="F46">
         <f ca="1" t="shared" si="18"/>
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="G46">
         <f ca="1" t="shared" si="19"/>
-        <v>-3</v>
+        <v>-9</v>
       </c>
       <c r="H46">
         <f ca="1" t="shared" si="13"/>
-        <v>44.77</v>
+        <v>45.11</v>
       </c>
       <c r="I46">
         <f ca="1" t="shared" si="14"/>
-        <v>7.77</v>
+        <v>8.11</v>
       </c>
       <c r="J46">
         <f ca="1" t="shared" si="15"/>
-        <v>4.77</v>
+        <v>5.11</v>
       </c>
       <c r="K46">
         <f ca="1" t="shared" si="16"/>
-        <v>12.77</v>
+        <v>13.11</v>
       </c>
       <c r="L46">
         <f ca="1" t="shared" si="17"/>
-        <v>-6.23</v>
+        <v>-5.89</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -3049,31 +3042,31 @@
       </c>
       <c r="F47">
         <f ca="1" t="shared" si="18"/>
-        <v>-2</v>
+        <v>5</v>
       </c>
       <c r="G47">
         <f ca="1" t="shared" si="19"/>
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="H47">
         <f ca="1" t="shared" si="13"/>
-        <v>45.72</v>
+        <v>46.5</v>
       </c>
       <c r="I47">
         <f ca="1" t="shared" si="14"/>
-        <v>4.72</v>
+        <v>5.5</v>
       </c>
       <c r="J47">
         <f ca="1" t="shared" si="15"/>
-        <v>3.72</v>
+        <v>4.5</v>
       </c>
       <c r="K47">
         <f ca="1" t="shared" si="16"/>
-        <v>12.72</v>
+        <v>13.5</v>
       </c>
       <c r="L47">
         <f ca="1" t="shared" si="17"/>
-        <v>-4.28</v>
+        <v>-3.5</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3098,27 +3091,27 @@
       </c>
       <c r="G48">
         <f ca="1" t="shared" si="19"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H48">
         <f ca="1" t="shared" si="13"/>
-        <v>47.22</v>
+        <v>47.23</v>
       </c>
       <c r="I48">
         <f ca="1" t="shared" si="14"/>
-        <v>6.22</v>
+        <v>6.23</v>
       </c>
       <c r="J48">
         <f ca="1" t="shared" si="15"/>
-        <v>3.22</v>
+        <v>3.23</v>
       </c>
       <c r="K48">
         <f ca="1" t="shared" si="16"/>
-        <v>13.22</v>
+        <v>13.23</v>
       </c>
       <c r="L48">
         <f ca="1" t="shared" si="17"/>
-        <v>-2.78</v>
+        <v>-2.77</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3139,31 +3132,31 @@
       </c>
       <c r="F49">
         <f ca="1" t="shared" si="18"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="G49">
         <f ca="1" t="shared" si="19"/>
-        <v>-2</v>
+        <v>7</v>
       </c>
       <c r="H49">
         <f ca="1" t="shared" si="13"/>
-        <v>47.68</v>
+        <v>48.07</v>
       </c>
       <c r="I49">
         <f ca="1" t="shared" si="14"/>
-        <v>6.68</v>
+        <v>7.07</v>
       </c>
       <c r="J49">
         <f ca="1" t="shared" si="15"/>
-        <v>1.68</v>
+        <v>2.07</v>
       </c>
       <c r="K49">
         <f ca="1" t="shared" si="16"/>
-        <v>12.68</v>
+        <v>13.07</v>
       </c>
       <c r="L49">
         <f ca="1" t="shared" si="17"/>
-        <v>-5.32</v>
+        <v>-4.93</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3184,31 +3177,31 @@
       </c>
       <c r="F50">
         <f ca="1" t="shared" si="18"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G50">
         <f ca="1" t="shared" si="19"/>
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="H50">
         <f ca="1" t="shared" si="13"/>
-        <v>48.96</v>
+        <v>49.51</v>
       </c>
       <c r="I50">
         <f ca="1" t="shared" si="14"/>
-        <v>7.96</v>
+        <v>8.51</v>
       </c>
       <c r="J50">
         <f ca="1" t="shared" si="15"/>
-        <v>4.96</v>
+        <v>5.51</v>
       </c>
       <c r="K50">
         <f ca="1" t="shared" si="16"/>
-        <v>12.96</v>
+        <v>13.51</v>
       </c>
       <c r="L50">
         <f ca="1" t="shared" si="17"/>
-        <v>-2.04</v>
+        <v>-1.49</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3229,31 +3222,31 @@
       </c>
       <c r="F51">
         <f ca="1" t="shared" si="18"/>
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="G51">
         <f ca="1" t="shared" si="19"/>
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="H51">
         <f ca="1" t="shared" si="13"/>
-        <v>49.59</v>
+        <v>49.98</v>
       </c>
       <c r="I51">
         <f ca="1" t="shared" si="14"/>
-        <v>8.59</v>
+        <v>8.98</v>
       </c>
       <c r="J51">
         <f ca="1" t="shared" si="15"/>
-        <v>3.59</v>
+        <v>3.98</v>
       </c>
       <c r="K51">
         <f ca="1" t="shared" si="16"/>
-        <v>12.59</v>
+        <v>12.98</v>
       </c>
       <c r="L51">
         <f ca="1" t="shared" si="17"/>
-        <v>-6.41</v>
+        <v>-6.02</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3274,31 +3267,31 @@
       </c>
       <c r="F52">
         <f ca="1" t="shared" si="18"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G52">
         <f ca="1" t="shared" si="19"/>
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="H52">
         <f ca="1" t="shared" si="13"/>
-        <v>51.35</v>
+        <v>51.31</v>
       </c>
       <c r="I52">
         <f ca="1" t="shared" si="14"/>
-        <v>6.35</v>
+        <v>6.31</v>
       </c>
       <c r="J52">
         <f ca="1" t="shared" si="15"/>
-        <v>3.35</v>
+        <v>3.31</v>
       </c>
       <c r="K52">
         <f ca="1" t="shared" si="16"/>
-        <v>13.35</v>
+        <v>13.31</v>
       </c>
       <c r="L52">
         <f ca="1" t="shared" si="17"/>
-        <v>-3.65</v>
+        <v>-3.69</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3319,31 +3312,31 @@
       </c>
       <c r="F53">
         <f ca="1" t="shared" ref="F53:F62" si="20">RANDBETWEEN(-5,5)</f>
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="G53">
         <f ca="1" t="shared" ref="G53:G62" si="21">RANDBETWEEN(-10,10)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H53">
         <f ca="1" t="shared" si="13"/>
-        <v>52.35</v>
+        <v>51.7</v>
       </c>
       <c r="I53">
         <f ca="1" t="shared" si="14"/>
-        <v>7.35</v>
+        <v>6.7</v>
       </c>
       <c r="J53">
         <f ca="1" t="shared" si="15"/>
-        <v>2.35</v>
+        <v>1.7</v>
       </c>
       <c r="K53">
         <f ca="1" t="shared" si="16"/>
-        <v>13.35</v>
+        <v>12.7</v>
       </c>
       <c r="L53">
         <f ca="1" t="shared" si="17"/>
-        <v>-2.65</v>
+        <v>-3.3</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3364,31 +3357,31 @@
       </c>
       <c r="F54">
         <f ca="1" t="shared" si="20"/>
-        <v>3</v>
+        <v>-4</v>
       </c>
       <c r="G54">
         <f ca="1" t="shared" si="21"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H54">
         <f ca="1" t="shared" si="13"/>
-        <v>53.39</v>
+        <v>52.62</v>
       </c>
       <c r="I54">
         <f ca="1" t="shared" si="14"/>
-        <v>8.39</v>
+        <v>7.62</v>
       </c>
       <c r="J54">
         <f ca="1" t="shared" si="15"/>
-        <v>5.39</v>
+        <v>4.62</v>
       </c>
       <c r="K54">
         <f ca="1" t="shared" si="16"/>
-        <v>13.39</v>
+        <v>12.62</v>
       </c>
       <c r="L54">
         <f ca="1" t="shared" si="17"/>
-        <v>-4.61</v>
+        <v>-5.38</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3409,31 +3402,31 @@
       </c>
       <c r="F55">
         <f ca="1" t="shared" si="20"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G55">
         <f ca="1" t="shared" si="21"/>
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="H55">
         <f ca="1" t="shared" si="13"/>
-        <v>53.96</v>
+        <v>54.35</v>
       </c>
       <c r="I55">
         <f ca="1" t="shared" si="14"/>
-        <v>8.96</v>
+        <v>9.35</v>
       </c>
       <c r="J55">
         <f ca="1" t="shared" si="15"/>
-        <v>3.96</v>
+        <v>4.35</v>
       </c>
       <c r="K55">
         <f ca="1" t="shared" si="16"/>
-        <v>12.96</v>
+        <v>13.35</v>
       </c>
       <c r="L55">
         <f ca="1" t="shared" si="17"/>
-        <v>-2.04</v>
+        <v>-1.65</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3454,31 +3447,31 @@
       </c>
       <c r="F56">
         <f ca="1" t="shared" si="20"/>
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="G56">
         <f ca="1" t="shared" si="21"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H56">
         <f ca="1" t="shared" si="13"/>
-        <v>54.93</v>
+        <v>55.4</v>
       </c>
       <c r="I56">
         <f ca="1" t="shared" si="14"/>
-        <v>9.93</v>
+        <v>10.4</v>
       </c>
       <c r="J56">
         <f ca="1" t="shared" si="15"/>
-        <v>2.93</v>
+        <v>3.4</v>
       </c>
       <c r="K56">
         <f ca="1" t="shared" si="16"/>
-        <v>12.93</v>
+        <v>13.4</v>
       </c>
       <c r="L56">
         <f ca="1" t="shared" si="17"/>
-        <v>-6.07</v>
+        <v>-5.6</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -3499,31 +3492,31 @@
       </c>
       <c r="F57">
         <f ca="1" t="shared" si="20"/>
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="G57">
         <f ca="1" t="shared" si="21"/>
-        <v>-6</v>
+        <v>7</v>
       </c>
       <c r="H57">
         <f ca="1" t="shared" si="13"/>
-        <v>55.64</v>
+        <v>55.97</v>
       </c>
       <c r="I57">
         <f ca="1" t="shared" si="14"/>
-        <v>6.64</v>
+        <v>6.97</v>
       </c>
       <c r="J57">
         <f ca="1" t="shared" si="15"/>
-        <v>1.64</v>
+        <v>1.97</v>
       </c>
       <c r="K57">
         <f ca="1" t="shared" si="16"/>
-        <v>12.64</v>
+        <v>12.97</v>
       </c>
       <c r="L57">
         <f ca="1" t="shared" si="17"/>
-        <v>-4.36</v>
+        <v>-4.03</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -3544,31 +3537,31 @@
       </c>
       <c r="F58">
         <f ca="1" t="shared" si="20"/>
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="G58">
         <f ca="1" t="shared" si="21"/>
-        <v>7</v>
+        <v>-10</v>
       </c>
       <c r="H58">
         <f ca="1" t="shared" si="13"/>
-        <v>57.17</v>
+        <v>56.7</v>
       </c>
       <c r="I58">
         <f ca="1" t="shared" si="14"/>
-        <v>8.17</v>
+        <v>7.7</v>
       </c>
       <c r="J58">
         <f ca="1" t="shared" si="15"/>
-        <v>5.17</v>
+        <v>4.7</v>
       </c>
       <c r="K58">
         <f ca="1" t="shared" si="16"/>
-        <v>13.17</v>
+        <v>12.7</v>
       </c>
       <c r="L58">
         <f ca="1" t="shared" si="17"/>
-        <v>-2.83</v>
+        <v>-3.3</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -3589,31 +3582,31 @@
       </c>
       <c r="F59">
         <f ca="1" t="shared" si="20"/>
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="G59">
         <f ca="1" t="shared" si="21"/>
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="H59">
         <f ca="1" t="shared" si="13"/>
-        <v>58.34</v>
+        <v>57.9</v>
       </c>
       <c r="I59">
         <f ca="1" t="shared" si="14"/>
-        <v>9.34</v>
+        <v>8.9</v>
       </c>
       <c r="J59">
         <f ca="1" t="shared" si="15"/>
-        <v>4.34</v>
+        <v>3.9</v>
       </c>
       <c r="K59">
         <f ca="1" t="shared" si="16"/>
-        <v>13.34</v>
+        <v>12.9</v>
       </c>
       <c r="L59">
         <f ca="1" t="shared" si="17"/>
-        <v>-4.66</v>
+        <v>-5.1</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -3634,7 +3627,7 @@
       </c>
       <c r="F60">
         <f ca="1" t="shared" si="20"/>
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="G60">
         <f ca="1" t="shared" si="21"/>
@@ -3642,23 +3635,23 @@
       </c>
       <c r="H60">
         <f ca="1" t="shared" si="13"/>
-        <v>58.78</v>
+        <v>58.48</v>
       </c>
       <c r="I60">
         <f ca="1" t="shared" si="14"/>
-        <v>9.78</v>
+        <v>9.48</v>
       </c>
       <c r="J60">
         <f ca="1" t="shared" si="15"/>
-        <v>2.78</v>
+        <v>2.48</v>
       </c>
       <c r="K60">
         <f ca="1" t="shared" si="16"/>
-        <v>12.78</v>
+        <v>12.48</v>
       </c>
       <c r="L60">
         <f ca="1" t="shared" si="17"/>
-        <v>-2.22</v>
+        <v>-2.52</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -3679,31 +3672,31 @@
       </c>
       <c r="F61">
         <f ca="1" t="shared" si="20"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G61">
         <f ca="1" t="shared" si="21"/>
-        <v>-9</v>
+        <v>-6</v>
       </c>
       <c r="H61">
         <f ca="1" t="shared" si="13"/>
-        <v>60.11</v>
+        <v>60.44</v>
       </c>
       <c r="I61">
         <f ca="1" t="shared" si="14"/>
-        <v>11.11</v>
+        <v>11.44</v>
       </c>
       <c r="J61">
         <f ca="1" t="shared" si="15"/>
-        <v>2.11</v>
+        <v>2.44</v>
       </c>
       <c r="K61">
         <f ca="1" t="shared" si="16"/>
-        <v>13.11</v>
+        <v>13.44</v>
       </c>
       <c r="L61">
         <f ca="1" t="shared" si="17"/>
-        <v>-5.89</v>
+        <v>-5.56</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -3724,31 +3717,31 @@
       </c>
       <c r="F62">
         <f ca="1" t="shared" si="20"/>
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="G62">
         <f ca="1" t="shared" si="21"/>
-        <v>-4</v>
+        <v>10</v>
       </c>
       <c r="H62">
         <f ca="1" t="shared" si="13"/>
-        <v>60.76</v>
+        <v>60.7</v>
       </c>
       <c r="I62">
         <f ca="1" t="shared" si="14"/>
-        <v>3.76</v>
+        <v>3.7</v>
       </c>
       <c r="J62">
         <f ca="1" t="shared" si="15"/>
-        <v>4.76</v>
+        <v>4.7</v>
       </c>
       <c r="K62">
         <f ca="1" t="shared" si="16"/>
-        <v>12.76</v>
+        <v>12.7</v>
       </c>
       <c r="L62">
         <f ca="1" t="shared" si="17"/>
-        <v>-4.24</v>
+        <v>-4.3</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -3769,31 +3762,31 @@
       </c>
       <c r="F63">
         <f ca="1" t="shared" ref="F63:F72" si="22">RANDBETWEEN(-5,5)</f>
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G63">
         <f ca="1" t="shared" ref="G63:G72" si="23">RANDBETWEEN(-10,10)</f>
-        <v>-6</v>
+        <v>9</v>
       </c>
       <c r="H63">
         <f ca="1" t="shared" si="13"/>
-        <v>61.84</v>
+        <v>62.59</v>
       </c>
       <c r="I63">
         <f ca="1" t="shared" si="14"/>
-        <v>4.84</v>
+        <v>5.59</v>
       </c>
       <c r="J63">
         <f ca="1" t="shared" si="15"/>
-        <v>3.84</v>
+        <v>4.59</v>
       </c>
       <c r="K63">
         <f ca="1" t="shared" si="16"/>
-        <v>12.84</v>
+        <v>13.59</v>
       </c>
       <c r="L63">
         <f ca="1" t="shared" si="17"/>
-        <v>-3.16</v>
+        <v>-2.41</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -3814,31 +3807,31 @@
       </c>
       <c r="F64">
         <f ca="1" t="shared" si="22"/>
-        <v>3</v>
+        <v>-5</v>
       </c>
       <c r="G64">
         <f ca="1" t="shared" si="23"/>
-        <v>-6</v>
+        <v>4</v>
       </c>
       <c r="H64">
         <f ca="1" t="shared" si="13"/>
-        <v>63.24</v>
+        <v>62.54</v>
       </c>
       <c r="I64">
         <f ca="1" t="shared" si="14"/>
-        <v>6.24</v>
+        <v>5.54</v>
       </c>
       <c r="J64">
         <f ca="1" t="shared" si="15"/>
-        <v>3.24</v>
+        <v>2.54</v>
       </c>
       <c r="K64">
         <f ca="1" t="shared" si="16"/>
-        <v>13.24</v>
+        <v>12.54</v>
       </c>
       <c r="L64">
         <f ca="1" t="shared" si="17"/>
-        <v>-4.76</v>
+        <v>-5.46</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -3859,31 +3852,31 @@
       </c>
       <c r="F65">
         <f ca="1" t="shared" si="22"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G65">
         <f ca="1" t="shared" si="23"/>
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="H65">
         <f ca="1" t="shared" si="13"/>
-        <v>64.44</v>
+        <v>64.15</v>
       </c>
       <c r="I65">
         <f ca="1" t="shared" si="14"/>
-        <v>7.44</v>
+        <v>7.15</v>
       </c>
       <c r="J65">
         <f ca="1" t="shared" si="15"/>
-        <v>2.44</v>
+        <v>2.15</v>
       </c>
       <c r="K65">
         <f ca="1" t="shared" si="16"/>
-        <v>13.44</v>
+        <v>13.15</v>
       </c>
       <c r="L65">
         <f ca="1" t="shared" si="17"/>
-        <v>-1.56</v>
+        <v>-1.85</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -3904,7 +3897,7 @@
       </c>
       <c r="F66">
         <f ca="1" t="shared" si="22"/>
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="G66">
         <f ca="1" t="shared" si="23"/>
@@ -3912,23 +3905,23 @@
       </c>
       <c r="H66">
         <f ca="1" t="shared" si="13"/>
-        <v>65.27</v>
+        <v>64.97</v>
       </c>
       <c r="I66">
         <f ca="1" t="shared" si="14"/>
-        <v>8.27</v>
+        <v>7.97</v>
       </c>
       <c r="J66">
         <f ca="1" t="shared" si="15"/>
-        <v>5.27</v>
+        <v>4.97</v>
       </c>
       <c r="K66">
         <f ca="1" t="shared" si="16"/>
-        <v>13.27</v>
+        <v>12.97</v>
       </c>
       <c r="L66">
         <f ca="1" t="shared" si="17"/>
-        <v>-5.73</v>
+        <v>-6.03</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -3949,31 +3942,31 @@
       </c>
       <c r="F67">
         <f ca="1" t="shared" si="22"/>
-        <v>3</v>
+        <v>-4</v>
       </c>
       <c r="G67">
         <f ca="1" t="shared" si="23"/>
-        <v>6</v>
+        <v>-5</v>
       </c>
       <c r="H67">
         <f ca="1" t="shared" ref="H67:H101" si="24">A67+$F67/10+$G67/100</f>
-        <v>66.36</v>
+        <v>65.55</v>
       </c>
       <c r="I67">
         <f ca="1" t="shared" ref="I67:I101" si="25">B67+$F67/10+$G67/100</f>
-        <v>5.36</v>
+        <v>4.55</v>
       </c>
       <c r="J67">
         <f ca="1" t="shared" ref="J67:J101" si="26">C67+$F67/10+$G67/100</f>
-        <v>4.36</v>
+        <v>3.55</v>
       </c>
       <c r="K67">
         <f ca="1" t="shared" ref="K67:K101" si="27">D67+$F67/10+$G67/100</f>
-        <v>13.36</v>
+        <v>12.55</v>
       </c>
       <c r="L67">
         <f ca="1" t="shared" ref="L67:L101" si="28">E67+$F67/10+$G67/100</f>
-        <v>-3.64</v>
+        <v>-4.45</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -3994,31 +3987,31 @@
       </c>
       <c r="F68">
         <f ca="1" t="shared" si="22"/>
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="G68">
         <f ca="1" t="shared" si="23"/>
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="H68">
         <f ca="1" t="shared" si="24"/>
-        <v>67.03</v>
+        <v>66.8</v>
       </c>
       <c r="I68">
         <f ca="1" t="shared" si="25"/>
-        <v>6.03</v>
+        <v>5.8</v>
       </c>
       <c r="J68">
         <f ca="1" t="shared" si="26"/>
-        <v>3.03</v>
+        <v>2.8</v>
       </c>
       <c r="K68">
         <f ca="1" t="shared" si="27"/>
-        <v>13.03</v>
+        <v>12.8</v>
       </c>
       <c r="L68">
         <f ca="1" t="shared" si="28"/>
-        <v>-2.97</v>
+        <v>-3.2</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -4039,31 +4032,31 @@
       </c>
       <c r="F69">
         <f ca="1" t="shared" si="22"/>
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="G69">
         <f ca="1" t="shared" si="23"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H69">
         <f ca="1" t="shared" si="24"/>
-        <v>68.18</v>
+        <v>67.7</v>
       </c>
       <c r="I69">
         <f ca="1" t="shared" si="25"/>
-        <v>7.18</v>
+        <v>6.7</v>
       </c>
       <c r="J69">
         <f ca="1" t="shared" si="26"/>
-        <v>2.18</v>
+        <v>1.7</v>
       </c>
       <c r="K69">
         <f ca="1" t="shared" si="27"/>
-        <v>13.18</v>
+        <v>12.7</v>
       </c>
       <c r="L69">
         <f ca="1" t="shared" si="28"/>
-        <v>-4.82</v>
+        <v>-5.3</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -4084,31 +4077,31 @@
       </c>
       <c r="F70">
         <f ca="1" t="shared" si="22"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G70">
         <f ca="1" t="shared" si="23"/>
-        <v>-10</v>
+        <v>2</v>
       </c>
       <c r="H70">
         <f ca="1" t="shared" si="24"/>
-        <v>69.1</v>
+        <v>69.12</v>
       </c>
       <c r="I70">
         <f ca="1" t="shared" si="25"/>
-        <v>8.1</v>
+        <v>8.12</v>
       </c>
       <c r="J70">
         <f ca="1" t="shared" si="26"/>
-        <v>5.1</v>
+        <v>5.12</v>
       </c>
       <c r="K70">
         <f ca="1" t="shared" si="27"/>
-        <v>13.1</v>
+        <v>13.12</v>
       </c>
       <c r="L70">
         <f ca="1" t="shared" si="28"/>
-        <v>-1.9</v>
+        <v>-1.88</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -4129,31 +4122,31 @@
       </c>
       <c r="F71">
         <f ca="1" t="shared" si="22"/>
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="G71">
         <f ca="1" t="shared" si="23"/>
-        <v>-10</v>
+        <v>-1</v>
       </c>
       <c r="H71">
         <f ca="1" t="shared" si="24"/>
-        <v>69.5</v>
+        <v>69.69</v>
       </c>
       <c r="I71">
         <f ca="1" t="shared" si="25"/>
-        <v>8.5</v>
+        <v>8.69</v>
       </c>
       <c r="J71">
         <f ca="1" t="shared" si="26"/>
-        <v>3.5</v>
+        <v>3.69</v>
       </c>
       <c r="K71">
         <f ca="1" t="shared" si="27"/>
-        <v>12.5</v>
+        <v>12.69</v>
       </c>
       <c r="L71">
         <f ca="1" t="shared" si="28"/>
-        <v>-6.5</v>
+        <v>-6.31</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -4174,31 +4167,31 @@
       </c>
       <c r="F72">
         <f ca="1" t="shared" si="22"/>
-        <v>-3</v>
+        <v>5</v>
       </c>
       <c r="G72">
         <f ca="1" t="shared" si="23"/>
-        <v>-7</v>
+        <v>-1</v>
       </c>
       <c r="H72">
         <f ca="1" t="shared" si="24"/>
-        <v>70.63</v>
+        <v>71.49</v>
       </c>
       <c r="I72">
         <f ca="1" t="shared" si="25"/>
-        <v>5.63</v>
+        <v>6.49</v>
       </c>
       <c r="J72">
         <f ca="1" t="shared" si="26"/>
-        <v>2.63</v>
+        <v>3.49</v>
       </c>
       <c r="K72">
         <f ca="1" t="shared" si="27"/>
-        <v>12.63</v>
+        <v>13.49</v>
       </c>
       <c r="L72">
         <f ca="1" t="shared" si="28"/>
-        <v>-4.37</v>
+        <v>-3.51</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -4219,31 +4212,31 @@
       </c>
       <c r="F73">
         <f ca="1" t="shared" ref="F73:F82" si="29">RANDBETWEEN(-5,5)</f>
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="G73">
         <f ca="1" t="shared" ref="G73:G82" si="30">RANDBETWEEN(-10,10)</f>
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="H73">
         <f ca="1" t="shared" si="24"/>
-        <v>72.16</v>
+        <v>71.75</v>
       </c>
       <c r="I73">
         <f ca="1" t="shared" si="25"/>
-        <v>7.16</v>
+        <v>6.75</v>
       </c>
       <c r="J73">
         <f ca="1" t="shared" si="26"/>
-        <v>2.16</v>
+        <v>1.75</v>
       </c>
       <c r="K73">
         <f ca="1" t="shared" si="27"/>
-        <v>13.16</v>
+        <v>12.75</v>
       </c>
       <c r="L73">
         <f ca="1" t="shared" si="28"/>
-        <v>-2.84</v>
+        <v>-3.25</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -4264,31 +4257,31 @@
       </c>
       <c r="F74">
         <f ca="1" t="shared" si="29"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="G74">
         <f ca="1" t="shared" si="30"/>
-        <v>-7</v>
+        <v>6</v>
       </c>
       <c r="H74">
         <f ca="1" t="shared" si="24"/>
-        <v>72.63</v>
+        <v>73.06</v>
       </c>
       <c r="I74">
         <f ca="1" t="shared" si="25"/>
-        <v>7.63</v>
+        <v>8.06</v>
       </c>
       <c r="J74">
         <f ca="1" t="shared" si="26"/>
-        <v>4.63</v>
+        <v>5.06</v>
       </c>
       <c r="K74">
         <f ca="1" t="shared" si="27"/>
-        <v>12.63</v>
+        <v>13.06</v>
       </c>
       <c r="L74">
         <f ca="1" t="shared" si="28"/>
-        <v>-5.37</v>
+        <v>-4.94</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -4309,31 +4302,31 @@
       </c>
       <c r="F75">
         <f ca="1" t="shared" si="29"/>
-        <v>2</v>
+        <v>-5</v>
       </c>
       <c r="G75">
         <f ca="1" t="shared" si="30"/>
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="H75">
         <f ca="1" t="shared" si="24"/>
-        <v>74.19</v>
+        <v>73.46</v>
       </c>
       <c r="I75">
         <f ca="1" t="shared" si="25"/>
-        <v>9.19</v>
+        <v>8.46</v>
       </c>
       <c r="J75">
         <f ca="1" t="shared" si="26"/>
-        <v>4.19</v>
+        <v>3.46</v>
       </c>
       <c r="K75">
         <f ca="1" t="shared" si="27"/>
-        <v>13.19</v>
+        <v>12.46</v>
       </c>
       <c r="L75">
         <f ca="1" t="shared" si="28"/>
-        <v>-1.81</v>
+        <v>-2.54</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -4354,31 +4347,31 @@
       </c>
       <c r="F76">
         <f ca="1" t="shared" si="29"/>
-        <v>4</v>
+        <v>-5</v>
       </c>
       <c r="G76">
         <f ca="1" t="shared" si="30"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H76">
         <f ca="1" t="shared" si="24"/>
-        <v>75.46</v>
+        <v>74.6</v>
       </c>
       <c r="I76">
         <f ca="1" t="shared" si="25"/>
-        <v>10.46</v>
+        <v>9.6</v>
       </c>
       <c r="J76">
         <f ca="1" t="shared" si="26"/>
-        <v>3.46</v>
+        <v>2.6</v>
       </c>
       <c r="K76">
         <f ca="1" t="shared" si="27"/>
-        <v>13.46</v>
+        <v>12.6</v>
       </c>
       <c r="L76">
         <f ca="1" t="shared" si="28"/>
-        <v>-5.54</v>
+        <v>-6.4</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -4399,31 +4392,31 @@
       </c>
       <c r="F77">
         <f ca="1" t="shared" si="29"/>
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="G77">
         <f ca="1" t="shared" si="30"/>
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="H77">
         <f ca="1" t="shared" si="24"/>
-        <v>75.67</v>
+        <v>75.61</v>
       </c>
       <c r="I77">
         <f ca="1" t="shared" si="25"/>
-        <v>6.67</v>
+        <v>6.61</v>
       </c>
       <c r="J77">
         <f ca="1" t="shared" si="26"/>
-        <v>1.67</v>
+        <v>1.61</v>
       </c>
       <c r="K77">
         <f ca="1" t="shared" si="27"/>
-        <v>12.67</v>
+        <v>12.61</v>
       </c>
       <c r="L77">
         <f ca="1" t="shared" si="28"/>
-        <v>-4.33</v>
+        <v>-4.39</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -4444,31 +4437,31 @@
       </c>
       <c r="F78">
         <f ca="1" t="shared" si="29"/>
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="G78">
         <f ca="1" t="shared" si="30"/>
-        <v>-6</v>
+        <v>2</v>
       </c>
       <c r="H78">
         <f ca="1" t="shared" si="24"/>
-        <v>76.44</v>
+        <v>77.12</v>
       </c>
       <c r="I78">
         <f ca="1" t="shared" si="25"/>
-        <v>7.44</v>
+        <v>8.12</v>
       </c>
       <c r="J78">
         <f ca="1" t="shared" si="26"/>
-        <v>4.44</v>
+        <v>5.12</v>
       </c>
       <c r="K78">
         <f ca="1" t="shared" si="27"/>
-        <v>12.44</v>
+        <v>13.12</v>
       </c>
       <c r="L78">
         <f ca="1" t="shared" si="28"/>
-        <v>-3.56</v>
+        <v>-2.88</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -4489,31 +4482,31 @@
       </c>
       <c r="F79">
         <f ca="1" t="shared" si="29"/>
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="G79">
         <f ca="1" t="shared" si="30"/>
-        <v>-8</v>
+        <v>2</v>
       </c>
       <c r="H79">
         <f ca="1" t="shared" si="24"/>
-        <v>77.62</v>
+        <v>77.52</v>
       </c>
       <c r="I79">
         <f ca="1" t="shared" si="25"/>
-        <v>8.62</v>
+        <v>8.52</v>
       </c>
       <c r="J79">
         <f ca="1" t="shared" si="26"/>
-        <v>3.62</v>
+        <v>3.52</v>
       </c>
       <c r="K79">
         <f ca="1" t="shared" si="27"/>
-        <v>12.62</v>
+        <v>12.52</v>
       </c>
       <c r="L79">
         <f ca="1" t="shared" si="28"/>
-        <v>-5.38</v>
+        <v>-5.48</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -4538,27 +4531,27 @@
       </c>
       <c r="G80">
         <f ca="1" t="shared" si="30"/>
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="H80">
         <f ca="1" t="shared" si="24"/>
-        <v>78.96</v>
+        <v>79.01</v>
       </c>
       <c r="I80">
         <f ca="1" t="shared" si="25"/>
-        <v>9.96</v>
+        <v>10.01</v>
       </c>
       <c r="J80">
         <f ca="1" t="shared" si="26"/>
-        <v>2.96</v>
+        <v>3.01</v>
       </c>
       <c r="K80">
         <f ca="1" t="shared" si="27"/>
-        <v>12.96</v>
+        <v>13.01</v>
       </c>
       <c r="L80">
         <f ca="1" t="shared" si="28"/>
-        <v>-2.04</v>
+        <v>-1.99</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -4579,31 +4572,31 @@
       </c>
       <c r="F81">
         <f ca="1" t="shared" si="29"/>
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="G81">
         <f ca="1" t="shared" si="30"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H81">
         <f ca="1" t="shared" si="24"/>
-        <v>79.53</v>
+        <v>79.82</v>
       </c>
       <c r="I81">
         <f ca="1" t="shared" si="25"/>
-        <v>10.53</v>
+        <v>10.82</v>
       </c>
       <c r="J81">
         <f ca="1" t="shared" si="26"/>
-        <v>1.53</v>
+        <v>1.82</v>
       </c>
       <c r="K81">
         <f ca="1" t="shared" si="27"/>
-        <v>12.53</v>
+        <v>12.82</v>
       </c>
       <c r="L81">
         <f ca="1" t="shared" si="28"/>
-        <v>-6.47</v>
+        <v>-6.18</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -4624,7 +4617,7 @@
       </c>
       <c r="F82">
         <f ca="1" t="shared" si="29"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G82">
         <f ca="1" t="shared" si="30"/>
@@ -4632,23 +4625,23 @@
       </c>
       <c r="H82">
         <f ca="1" t="shared" si="24"/>
-        <v>81.32</v>
+        <v>81.42</v>
       </c>
       <c r="I82">
         <f ca="1" t="shared" si="25"/>
-        <v>4.32</v>
+        <v>4.42</v>
       </c>
       <c r="J82">
         <f ca="1" t="shared" si="26"/>
-        <v>5.32</v>
+        <v>5.42</v>
       </c>
       <c r="K82">
         <f ca="1" t="shared" si="27"/>
-        <v>13.32</v>
+        <v>13.42</v>
       </c>
       <c r="L82">
         <f ca="1" t="shared" si="28"/>
-        <v>-3.68</v>
+        <v>-3.58</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -4669,31 +4662,31 @@
       </c>
       <c r="F83">
         <f ca="1" t="shared" ref="F83:F92" si="31">RANDBETWEEN(-5,5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G83">
         <f ca="1" t="shared" ref="G83:G92" si="32">RANDBETWEEN(-10,10)</f>
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="H83">
         <f ca="1" t="shared" si="24"/>
-        <v>82.32</v>
+        <v>82.11</v>
       </c>
       <c r="I83">
         <f ca="1" t="shared" si="25"/>
-        <v>5.32</v>
+        <v>5.11</v>
       </c>
       <c r="J83">
         <f ca="1" t="shared" si="26"/>
-        <v>4.32</v>
+        <v>4.11</v>
       </c>
       <c r="K83">
         <f ca="1" t="shared" si="27"/>
-        <v>13.32</v>
+        <v>13.11</v>
       </c>
       <c r="L83">
         <f ca="1" t="shared" si="28"/>
-        <v>-2.68</v>
+        <v>-2.89</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -4714,31 +4707,31 @@
       </c>
       <c r="F84">
         <f ca="1" t="shared" si="31"/>
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="G84">
         <f ca="1" t="shared" si="32"/>
-        <v>-4</v>
+        <v>2</v>
       </c>
       <c r="H84">
         <f ca="1" t="shared" si="24"/>
-        <v>82.76</v>
+        <v>82.62</v>
       </c>
       <c r="I84">
         <f ca="1" t="shared" si="25"/>
-        <v>5.76</v>
+        <v>5.62</v>
       </c>
       <c r="J84">
         <f ca="1" t="shared" si="26"/>
-        <v>2.76</v>
+        <v>2.62</v>
       </c>
       <c r="K84">
         <f ca="1" t="shared" si="27"/>
-        <v>12.76</v>
+        <v>12.62</v>
       </c>
       <c r="L84">
         <f ca="1" t="shared" si="28"/>
-        <v>-5.24</v>
+        <v>-5.38</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -4759,31 +4752,31 @@
       </c>
       <c r="F85">
         <f ca="1" t="shared" si="31"/>
-        <v>5</v>
+        <v>-2</v>
       </c>
       <c r="G85">
         <f ca="1" t="shared" si="32"/>
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="H85">
         <f ca="1" t="shared" si="24"/>
-        <v>84.59</v>
+        <v>83.71</v>
       </c>
       <c r="I85">
         <f ca="1" t="shared" si="25"/>
-        <v>7.59</v>
+        <v>6.71</v>
       </c>
       <c r="J85">
         <f ca="1" t="shared" si="26"/>
-        <v>2.59</v>
+        <v>1.71</v>
       </c>
       <c r="K85">
         <f ca="1" t="shared" si="27"/>
-        <v>13.59</v>
+        <v>12.71</v>
       </c>
       <c r="L85">
         <f ca="1" t="shared" si="28"/>
-        <v>-1.41</v>
+        <v>-2.29</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -4804,31 +4797,31 @@
       </c>
       <c r="F86">
         <f ca="1" t="shared" si="31"/>
-        <v>-3</v>
+        <v>5</v>
       </c>
       <c r="G86">
         <f ca="1" t="shared" si="32"/>
-        <v>7</v>
+        <v>-10</v>
       </c>
       <c r="H86">
         <f ca="1" t="shared" si="24"/>
-        <v>84.77</v>
+        <v>85.4</v>
       </c>
       <c r="I86">
         <f ca="1" t="shared" si="25"/>
-        <v>7.77</v>
+        <v>8.4</v>
       </c>
       <c r="J86">
         <f ca="1" t="shared" si="26"/>
-        <v>4.77</v>
+        <v>5.4</v>
       </c>
       <c r="K86">
         <f ca="1" t="shared" si="27"/>
-        <v>12.77</v>
+        <v>13.4</v>
       </c>
       <c r="L86">
         <f ca="1" t="shared" si="28"/>
-        <v>-6.23</v>
+        <v>-5.6</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -4849,31 +4842,31 @@
       </c>
       <c r="F87">
         <f ca="1" t="shared" si="31"/>
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="G87">
         <f ca="1" t="shared" si="32"/>
-        <v>-7</v>
+        <v>8</v>
       </c>
       <c r="H87">
         <f ca="1" t="shared" si="24"/>
-        <v>85.53</v>
+        <v>86.08</v>
       </c>
       <c r="I87">
         <f ca="1" t="shared" si="25"/>
-        <v>4.53</v>
+        <v>5.08</v>
       </c>
       <c r="J87">
         <f ca="1" t="shared" si="26"/>
-        <v>3.53</v>
+        <v>4.08</v>
       </c>
       <c r="K87">
         <f ca="1" t="shared" si="27"/>
-        <v>12.53</v>
+        <v>13.08</v>
       </c>
       <c r="L87">
         <f ca="1" t="shared" si="28"/>
-        <v>-4.47</v>
+        <v>-3.92</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -4898,27 +4891,27 @@
       </c>
       <c r="G88">
         <f ca="1" t="shared" si="32"/>
-        <v>9</v>
+        <v>-6</v>
       </c>
       <c r="H88">
         <f ca="1" t="shared" si="24"/>
-        <v>87.49</v>
+        <v>87.34</v>
       </c>
       <c r="I88">
         <f ca="1" t="shared" si="25"/>
-        <v>6.49</v>
+        <v>6.34</v>
       </c>
       <c r="J88">
         <f ca="1" t="shared" si="26"/>
-        <v>3.49</v>
+        <v>3.34</v>
       </c>
       <c r="K88">
         <f ca="1" t="shared" si="27"/>
-        <v>13.49</v>
+        <v>13.34</v>
       </c>
       <c r="L88">
         <f ca="1" t="shared" si="28"/>
-        <v>-2.51</v>
+        <v>-2.66</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -4939,31 +4932,31 @@
       </c>
       <c r="F89">
         <f ca="1" t="shared" si="31"/>
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="G89">
         <f ca="1" t="shared" si="32"/>
-        <v>-10</v>
+        <v>-2</v>
       </c>
       <c r="H89">
         <f ca="1" t="shared" si="24"/>
-        <v>87.8</v>
+        <v>87.48</v>
       </c>
       <c r="I89">
         <f ca="1" t="shared" si="25"/>
-        <v>6.8</v>
+        <v>6.48</v>
       </c>
       <c r="J89">
         <f ca="1" t="shared" si="26"/>
-        <v>1.8</v>
+        <v>1.48</v>
       </c>
       <c r="K89">
         <f ca="1" t="shared" si="27"/>
-        <v>12.8</v>
+        <v>12.48</v>
       </c>
       <c r="L89">
         <f ca="1" t="shared" si="28"/>
-        <v>-5.2</v>
+        <v>-5.52</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -4984,31 +4977,31 @@
       </c>
       <c r="F90">
         <f ca="1" t="shared" si="31"/>
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G90">
         <f ca="1" t="shared" si="32"/>
-        <v>-10</v>
+        <v>-6</v>
       </c>
       <c r="H90">
         <f ca="1" t="shared" si="24"/>
-        <v>88.8</v>
+        <v>89.44</v>
       </c>
       <c r="I90">
         <f ca="1" t="shared" si="25"/>
-        <v>7.8</v>
+        <v>8.44</v>
       </c>
       <c r="J90">
         <f ca="1" t="shared" si="26"/>
-        <v>4.8</v>
+        <v>5.44</v>
       </c>
       <c r="K90">
         <f ca="1" t="shared" si="27"/>
-        <v>12.8</v>
+        <v>13.44</v>
       </c>
       <c r="L90">
         <f ca="1" t="shared" si="28"/>
-        <v>-2.2</v>
+        <v>-1.56</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -5029,31 +5022,31 @@
       </c>
       <c r="F91">
         <f ca="1" t="shared" si="31"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G91">
         <f ca="1" t="shared" si="32"/>
-        <v>-6</v>
+        <v>8</v>
       </c>
       <c r="H91">
         <f ca="1" t="shared" si="24"/>
-        <v>90.04</v>
+        <v>90.48</v>
       </c>
       <c r="I91">
         <f ca="1" t="shared" si="25"/>
-        <v>9.04</v>
+        <v>9.48</v>
       </c>
       <c r="J91">
         <f ca="1" t="shared" si="26"/>
-        <v>4.04</v>
+        <v>4.48</v>
       </c>
       <c r="K91">
         <f ca="1" t="shared" si="27"/>
-        <v>13.04</v>
+        <v>13.48</v>
       </c>
       <c r="L91">
         <f ca="1" t="shared" si="28"/>
-        <v>-5.96</v>
+        <v>-5.52</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -5074,31 +5067,31 @@
       </c>
       <c r="F92">
         <f ca="1" t="shared" si="31"/>
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="G92">
         <f ca="1" t="shared" si="32"/>
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="H92">
         <f ca="1" t="shared" si="24"/>
-        <v>90.88</v>
+        <v>90.66</v>
       </c>
       <c r="I92">
         <f ca="1" t="shared" si="25"/>
-        <v>5.88</v>
+        <v>5.66</v>
       </c>
       <c r="J92">
         <f ca="1" t="shared" si="26"/>
-        <v>2.88</v>
+        <v>2.66</v>
       </c>
       <c r="K92">
         <f ca="1" t="shared" si="27"/>
-        <v>12.88</v>
+        <v>12.66</v>
       </c>
       <c r="L92">
         <f ca="1" t="shared" si="28"/>
-        <v>-4.12</v>
+        <v>-4.34</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -5119,31 +5112,31 @@
       </c>
       <c r="F93">
         <f ca="1" t="shared" ref="F93:F101" si="33">RANDBETWEEN(-5,5)</f>
-        <v>-3</v>
+        <v>5</v>
       </c>
       <c r="G93">
         <f ca="1" t="shared" ref="G93:G101" si="34">RANDBETWEEN(-10,10)</f>
-        <v>-6</v>
+        <v>4</v>
       </c>
       <c r="H93">
         <f ca="1" t="shared" si="24"/>
-        <v>91.64</v>
+        <v>92.54</v>
       </c>
       <c r="I93">
         <f ca="1" t="shared" si="25"/>
-        <v>6.64</v>
+        <v>7.54</v>
       </c>
       <c r="J93">
         <f ca="1" t="shared" si="26"/>
-        <v>1.64</v>
+        <v>2.54</v>
       </c>
       <c r="K93">
         <f ca="1" t="shared" si="27"/>
-        <v>12.64</v>
+        <v>13.54</v>
       </c>
       <c r="L93">
         <f ca="1" t="shared" si="28"/>
-        <v>-3.36</v>
+        <v>-2.46</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -5164,31 +5157,31 @@
       </c>
       <c r="F94">
         <f ca="1" t="shared" si="33"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G94">
         <f ca="1" t="shared" si="34"/>
-        <v>-7</v>
+        <v>10</v>
       </c>
       <c r="H94">
         <f ca="1" t="shared" si="24"/>
-        <v>92.93</v>
+        <v>93.6</v>
       </c>
       <c r="I94">
         <f ca="1" t="shared" si="25"/>
-        <v>7.93</v>
+        <v>8.6</v>
       </c>
       <c r="J94">
         <f ca="1" t="shared" si="26"/>
-        <v>4.93</v>
+        <v>5.6</v>
       </c>
       <c r="K94">
         <f ca="1" t="shared" si="27"/>
-        <v>12.93</v>
+        <v>13.6</v>
       </c>
       <c r="L94">
         <f ca="1" t="shared" si="28"/>
-        <v>-5.07</v>
+        <v>-4.4</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -5209,31 +5202,31 @@
       </c>
       <c r="F95">
         <f ca="1" t="shared" si="33"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G95">
         <f ca="1" t="shared" si="34"/>
-        <v>-3</v>
+        <v>4</v>
       </c>
       <c r="H95">
         <f ca="1" t="shared" si="24"/>
-        <v>94.27</v>
+        <v>94.14</v>
       </c>
       <c r="I95">
         <f ca="1" t="shared" si="25"/>
-        <v>9.27</v>
+        <v>9.14</v>
       </c>
       <c r="J95">
         <f ca="1" t="shared" si="26"/>
-        <v>4.27</v>
+        <v>4.14</v>
       </c>
       <c r="K95">
         <f ca="1" t="shared" si="27"/>
-        <v>13.27</v>
+        <v>13.14</v>
       </c>
       <c r="L95">
         <f ca="1" t="shared" si="28"/>
-        <v>-1.73</v>
+        <v>-1.86</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -5254,31 +5247,31 @@
       </c>
       <c r="F96">
         <f ca="1" t="shared" si="33"/>
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="G96">
         <f ca="1" t="shared" si="34"/>
-        <v>-9</v>
+        <v>1</v>
       </c>
       <c r="H96">
         <f ca="1" t="shared" si="24"/>
-        <v>94.61</v>
+        <v>95.11</v>
       </c>
       <c r="I96">
         <f ca="1" t="shared" si="25"/>
-        <v>9.61</v>
+        <v>10.11</v>
       </c>
       <c r="J96">
         <f ca="1" t="shared" si="26"/>
-        <v>2.61</v>
+        <v>3.11</v>
       </c>
       <c r="K96">
         <f ca="1" t="shared" si="27"/>
-        <v>12.61</v>
+        <v>13.11</v>
       </c>
       <c r="L96">
         <f ca="1" t="shared" si="28"/>
-        <v>-6.39</v>
+        <v>-5.89</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -5299,31 +5292,31 @@
       </c>
       <c r="F97">
         <f ca="1" t="shared" si="33"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G97">
         <f ca="1" t="shared" si="34"/>
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="H97">
         <f ca="1" t="shared" si="24"/>
-        <v>96.15</v>
+        <v>95.85</v>
       </c>
       <c r="I97">
         <f ca="1" t="shared" si="25"/>
-        <v>7.15</v>
+        <v>6.85</v>
       </c>
       <c r="J97">
         <f ca="1" t="shared" si="26"/>
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="K97">
         <f ca="1" t="shared" si="27"/>
-        <v>13.15</v>
+        <v>12.85</v>
       </c>
       <c r="L97">
         <f ca="1" t="shared" si="28"/>
-        <v>-3.85</v>
+        <v>-4.15</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -5344,31 +5337,31 @@
       </c>
       <c r="F98">
         <f ca="1" t="shared" si="33"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G98">
         <f ca="1" t="shared" si="34"/>
-        <v>-3</v>
+        <v>9</v>
       </c>
       <c r="H98">
         <f ca="1" t="shared" si="24"/>
-        <v>97.27</v>
+        <v>97.59</v>
       </c>
       <c r="I98">
         <f ca="1" t="shared" si="25"/>
-        <v>8.27</v>
+        <v>8.59</v>
       </c>
       <c r="J98">
         <f ca="1" t="shared" si="26"/>
-        <v>5.27</v>
+        <v>5.59</v>
       </c>
       <c r="K98">
         <f ca="1" t="shared" si="27"/>
-        <v>13.27</v>
+        <v>13.59</v>
       </c>
       <c r="L98">
         <f ca="1" t="shared" si="28"/>
-        <v>-2.73</v>
+        <v>-2.41</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -5389,31 +5382,31 @@
       </c>
       <c r="F99">
         <f ca="1" t="shared" si="33"/>
-        <v>5</v>
+        <v>-2</v>
       </c>
       <c r="G99">
         <f ca="1" t="shared" si="34"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H99">
         <f ca="1" t="shared" si="24"/>
-        <v>98.51</v>
+        <v>97.83</v>
       </c>
       <c r="I99">
         <f ca="1" t="shared" si="25"/>
-        <v>9.51</v>
+        <v>8.83</v>
       </c>
       <c r="J99">
         <f ca="1" t="shared" si="26"/>
-        <v>4.51</v>
+        <v>3.83</v>
       </c>
       <c r="K99">
         <f ca="1" t="shared" si="27"/>
-        <v>13.51</v>
+        <v>12.83</v>
       </c>
       <c r="L99">
         <f ca="1" t="shared" si="28"/>
-        <v>-4.49</v>
+        <v>-5.17</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -5434,31 +5427,31 @@
       </c>
       <c r="F100">
         <f ca="1" t="shared" si="33"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G100">
         <f ca="1" t="shared" si="34"/>
-        <v>-2</v>
+        <v>-9</v>
       </c>
       <c r="H100">
         <f ca="1" t="shared" si="24"/>
-        <v>98.98</v>
+        <v>98.81</v>
       </c>
       <c r="I100">
         <f ca="1" t="shared" si="25"/>
-        <v>9.98</v>
+        <v>9.81</v>
       </c>
       <c r="J100">
         <f ca="1" t="shared" si="26"/>
-        <v>2.98</v>
+        <v>2.81</v>
       </c>
       <c r="K100">
         <f ca="1" t="shared" si="27"/>
-        <v>12.98</v>
+        <v>12.81</v>
       </c>
       <c r="L100">
         <f ca="1" t="shared" si="28"/>
-        <v>-2.02</v>
+        <v>-2.19</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -5479,31 +5472,31 @@
       </c>
       <c r="F101">
         <f ca="1" t="shared" si="33"/>
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="G101">
         <f ca="1" t="shared" si="34"/>
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="H101">
         <f ca="1" t="shared" si="24"/>
-        <v>100.44</v>
+        <v>99.89</v>
       </c>
       <c r="I101">
         <f ca="1" t="shared" si="25"/>
-        <v>11.44</v>
+        <v>10.89</v>
       </c>
       <c r="J101">
         <f ca="1" t="shared" si="26"/>
-        <v>2.44</v>
+        <v>1.89</v>
       </c>
       <c r="K101">
         <f ca="1" t="shared" si="27"/>
-        <v>13.44</v>
+        <v>12.89</v>
       </c>
       <c r="L101">
         <f ca="1" t="shared" si="28"/>
-        <v>-5.56</v>
+        <v>-6.11</v>
       </c>
     </row>
   </sheetData>
